--- a/data_raw.xlsx
+++ b/data_raw.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAP12881-local\Desktop\caferessthreadlessauto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68113AE7-4377-4946-9358-ED52519ABE75}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF82938-538A-47DE-B36E-E2A5B61BF9A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="8">
   <si>
     <t>title</t>
   </si>
@@ -38,18 +38,134 @@
   <si>
     <t>description</t>
   </si>
+  <si>
+    <t>test title</t>
+  </si>
+  <si>
+    <t>oijdoifsfs,f,dfdsf,sfsfsdfdsfdsfdsfjdsf,fdsf</t>
+  </si>
+  <si>
+    <t>this is a description</t>
+  </si>
+  <si>
+    <r>
+      <t>C:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD7BA7D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Users</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD7BA7D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>LAP12881-local</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD7BA7D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Desktop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD7BA7D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>caferessthreadlessauto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD7BA7D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>sample.jpg</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFD7BA7D"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -72,8 +188,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -354,13 +473,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="33.6328125" customWidth="1"/>
+    <col min="4" max="4" width="75.81640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -376,7 +499,330 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>